--- a/data/helpdoc/DND/B_UA词条整合.xlsx
+++ b/data/helpdoc/DND/B_UA词条整合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="UA法术" sheetId="5" r:id="rId1"/>
@@ -413,7 +413,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>5e 秘术骇入</t>
+    <t>秘术骇入</t>
   </si>
   <si>
     <t/>
@@ -436,7 +436,7 @@
     <t>#UA</t>
   </si>
   <si>
-    <t>5e 问道城市</t>
+    <t>问道城市</t>
   </si>
   <si>
     <t>问道城市 Commune with City(UA)
@@ -457,7 +457,7 @@
 举例来说，你可以得知该地区内强力不死生物的位置，主要电力或电磁干扰Interference的来源所在，以及任何附近公园的位置。</t>
   </si>
   <si>
-    <t>5e 召唤智机</t>
+    <t>召唤智机</t>
   </si>
   <si>
     <t>召唤智机 Conjure Knowbot(UA)
@@ -473,7 +473,7 @@
 升环施法效应：当你用5环或更高环的法术位来施放这个法术时，法术的持续时间增加到1小时。此外，你和智能机器人的心灵连结有效范围扩大到1000尺，若你离开连结范围，智能机器人仍会执行最后一道直接命令直到法术结束。</t>
   </si>
   <si>
-    <t>5e 数字魅影</t>
+    <t>数字魅影</t>
   </si>
   <si>
     <t>数字魅影 Digital Phantom(UA)
@@ -486,7 +486,7 @@
 本法术将主动隐藏你在系统中的存在。在法术持续期间，你和任意你选定的你的本地网络用户在避开管理员，智能机器人，追踪软件等物侦测的智力检定上获得+10加值。当你和你选定的用户在法术生效期内离开任何系统时，该系统中你先前的存在迹象都会被抹去。</t>
   </si>
   <si>
-    <t>5e 获得载具</t>
+    <t>获得载具</t>
   </si>
   <si>
     <t>获得载具 Find Vehicle(UA)
@@ -504,7 +504,7 @@
 升环施法效应：当你用3环或更高环的法术位来施放这个法术时，你能召唤一个足够容纳六个中型生物的非军用水面载具。当你用3环或更高环的法术位来施放这个法术时，你能召唤一个足够容纳十个中型生物的非军用空中载具。当你用7环或更高环的法术位来施放这个法术时，你能召唤任何种类的载具，只要DM允许。</t>
   </si>
   <si>
-    <t>5e 故障术</t>
+    <t>故障术</t>
   </si>
   <si>
     <t>故障术 Haywire(UA)
@@ -523,7 +523,7 @@
 升环施法效应：当你用4环或更高环的法术位来施放这个法术时，每比3环高一环就能使法术影响范围的半径增加5尺。</t>
   </si>
   <si>
-    <t>5e 无误转达</t>
+    <t>无误转达</t>
   </si>
   <si>
     <t>无误转达 Infallible Relay(UA)
@@ -537,7 +537,7 @@
 目标必须通过一个魅力豁免检定否则必须响应你的呼叫。一旦连接完成，该呼叫便会清晰无比且在通话或法术结束前无法中断。你能随时结束通话，但目标必须通过一个魅力豁免检定才能结束通话。</t>
   </si>
   <si>
-    <t>5e 屏蔽摄像</t>
+    <t>屏蔽摄像</t>
   </si>
   <si>
     <t>屏蔽摄像 Invisibility to Cameras(UA)
@@ -550,7 +550,7 @@
 在法术持续时间内，由你选择的四名范围内生物将无法被电子传感器和相机所侦测到。只要还在目标身上，目标所穿着或携带的任何东西也无法被侦测到。目标在视觉中依然可见。</t>
   </si>
   <si>
-    <t>5e 开关术</t>
+    <t>开关术</t>
   </si>
   <si>
     <t>开关术 On/Off(UA)
@@ -563,7 +563,7 @@
 这个小法术能让你开启或关闭任何范围内的电子设备，只要这个电子设备在外部有很明确的开关。任何需要基于软件来进行开启或关闭的电子设备都不受开关术的影响。</t>
   </si>
   <si>
-    <t>5e 防护弹道</t>
+    <t>防护弹道</t>
   </si>
   <si>
     <t>防护弹道 Protection from Ballistics(UA)
@@ -576,7 +576,7 @@
 本法术能强化目标的躯体以对抗子弹的效果。在法术结束前，目标获得对非魔法弹道伤害的抗性。</t>
   </si>
   <si>
-    <t>5e 远程接入</t>
+    <t>远程接入</t>
   </si>
   <si>
     <t>远程接入 Remote Access(UA)
@@ -589,7 +589,7 @@
 你能如同握于掌中般使用范围内的任何电子设备。这不是一个心灵遥控 Telekinesis效应。此外，本法术能让你以电子方式模拟一个装置的机械性能。你只能使用这个装置的一般功能。你只能同时用远程访问来使用一台装置。</t>
   </si>
   <si>
-    <t>5e 设备崩溃</t>
+    <t>设备崩溃</t>
   </si>
   <si>
     <t>设备崩溃 Shutdown(UA)
@@ -602,7 +602,7 @@
 本法术能关掉范围内所有没被生物所持用Wielded或直接控制的电子设备。如果范围内的某个电子设备正被某个生物所使用，该生物必须通过一个体质豁免检定才能阻止设备关闭。在本法术生效期间，范围的任何电子设备都无法启动或重启。</t>
   </si>
   <si>
-    <t>5e 一分不差</t>
+    <t>一分不差</t>
   </si>
   <si>
     <t>一分不差 Synchronicity(UA)
@@ -615,7 +615,7 @@
 你所触碰的生物在法术生效时间内感觉到现实按照它的喜好而扭曲。目标不会被任何普通延误所扰。红绿灯总是绿的，总有电梯在等候着它，出租车总能在拐角边找到。目标能以全速穿过密集的人群，由目标的移动引起的借机攻击则处于劣势，目标在敏捷（隐匿）检定上获得优势，因为它总能找到方便的掩护。除此之外，目标在所有驾驶载具的能力值检定上都具有优势。</t>
   </si>
   <si>
-    <t>5e 系统后门</t>
+    <t>系统后门</t>
   </si>
   <si>
     <t>系统后门 System Backdoor(UA)
@@ -629,7 +629,7 @@
 升环施法效应：当你用5环或更高环的法术位来施放本法术时，你能无视法术环阶小于等于你所用法术位的科技魔法法术。</t>
   </si>
   <si>
-    <t>5e 血羽</t>
+    <t>血羽</t>
   </si>
   <si>
     <t>血羽 Blood Quill(UA)
@@ -644,7 +644,7 @@
 一旦羽毛笔成功吸收法术，你可以花费时间将它抄写至你的法术书中，参考正常的抄写法术规则。在持续时间结束或你将被吸收的法术抄写至法术书后，羽毛笔将碎裂，视何者先发生。</t>
   </si>
   <si>
-    <t>5e 血之狂暴</t>
+    <t>血之狂暴</t>
   </si>
   <si>
     <t>血之狂暴 Blood Rage(UA)
@@ -660,7 +660,7 @@
 血魔法：当你施放这个法术时，你必须花费3个生命骰，每比3环高一环再额外花费1个生命骰。在持续时间结束之后，你得到1级力竭（参考PHB附录A中的描述）。这个力竭等级将在你完成一次短休以后结束。</t>
   </si>
   <si>
-    <t>5e 血液沸腾</t>
+    <t>血液沸腾</t>
   </si>
   <si>
     <t>血液沸腾 Boiling Blood(UA)
@@ -675,7 +675,7 @@
 升环施法效应：当你用5环或以上的法术位施放这个法术时，每比4环高一环你就可以额外指定一个生物，并且伤害也会增加1d6。</t>
   </si>
   <si>
-    <t>5e 酸蚀创伤</t>
+    <t>酸蚀创伤</t>
   </si>
   <si>
     <t>酸蚀创伤 Caustic Wound(UA)
@@ -690,7 +690,7 @@
 升环施法效应：当你用2环或以上的法术位施放这个法术时，每比1环高一环伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 血红利刃</t>
+    <t>血红利刃</t>
   </si>
   <si>
     <t>血红利刃 Crimson Blade(UA)
@@ -707,7 +707,7 @@
 血魔法：当你施放这个法术时，你必须花费2个生命骰，每比2环高两环再额外花费2个生命骰。在持续时间结束之后，你得到1级力竭（参考PHB附录A中的描述）。这个力竭等级将在你完成一次短休以后结束。</t>
   </si>
   <si>
-    <t>5e 收割打击</t>
+    <t>收割打击</t>
   </si>
   <si>
     <t>收割打击 Reaping Strike(UA)
@@ -1505,7 +1505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1516,6 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1837,16 +1838,16 @@
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.91666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="85.4537037037037" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.8888888888889" style="3" customWidth="1"/>
+    <col min="3" max="3" width="85.45" style="4" customWidth="1"/>
+    <col min="4" max="4" width="26.8916666666667" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.25" style="3"/>
   </cols>
   <sheetData>
@@ -2228,11 +2229,11 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.0833333333333" customWidth="1"/>
     <col min="3" max="3" width="76.25" customWidth="1"/>
-    <col min="6" max="6" width="9.62962962962963" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2259,6 +2260,7 @@
       <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>50</v>
       </c>
@@ -2270,6 +2272,7 @@
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2281,6 +2284,7 @@
       <c r="A4" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
@@ -2292,6 +2296,7 @@
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>56</v>
       </c>
@@ -2303,6 +2308,7 @@
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
@@ -2314,6 +2320,7 @@
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>60</v>
       </c>
@@ -2325,6 +2332,7 @@
       <c r="A8" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,6 +2344,7 @@
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
@@ -2347,6 +2356,7 @@
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
@@ -2358,6 +2368,7 @@
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
@@ -2369,6 +2380,7 @@
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>70</v>
       </c>
@@ -2394,7 +2406,7 @@
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="99.3333333333333" customWidth="1"/>
   </cols>
@@ -2423,6 +2435,7 @@
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
@@ -2443,11 +2456,11 @@
   <sheetPr/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="9.16666666666667" customWidth="1"/>
@@ -2478,6 +2491,7 @@
       <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
@@ -2489,6 +2503,7 @@
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
@@ -2500,6 +2515,7 @@
       <c r="A4" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>78</v>
       </c>
@@ -2511,6 +2527,7 @@
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>80</v>
       </c>
